--- a/data/pca/factorExposure/factorExposure_2017-07-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02338826271644484</v>
+        <v>-0.009273286546162241</v>
       </c>
       <c r="C2">
-        <v>-0.00406177504735137</v>
+        <v>-0.04302235128583275</v>
       </c>
       <c r="D2">
-        <v>0.02372867854937284</v>
+        <v>-0.02958687600228836</v>
       </c>
       <c r="E2">
-        <v>-0.01179378227953348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03228745483066298</v>
+      </c>
+      <c r="F2">
+        <v>-0.01133392724484013</v>
+      </c>
+      <c r="G2">
+        <v>-0.07403361333038198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01772630292263283</v>
+        <v>-0.04968396033840788</v>
       </c>
       <c r="C3">
-        <v>0.05428361111418596</v>
+        <v>-0.08139698342525205</v>
       </c>
       <c r="D3">
-        <v>0.03804100686749904</v>
+        <v>-0.01679995175487642</v>
       </c>
       <c r="E3">
-        <v>-0.01563979370469747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1038069524245915</v>
+      </c>
+      <c r="F3">
+        <v>-0.01038632611818116</v>
+      </c>
+      <c r="G3">
+        <v>-0.1807957925179776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02313615546122235</v>
+        <v>-0.05913644375336102</v>
       </c>
       <c r="C4">
-        <v>0.009638711579035061</v>
+        <v>-0.06480340815208716</v>
       </c>
       <c r="D4">
-        <v>0.07676704597415551</v>
+        <v>-0.02397134188345121</v>
       </c>
       <c r="E4">
-        <v>0.01447984465286286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02369229991778992</v>
+      </c>
+      <c r="F4">
+        <v>-0.006057207865614537</v>
+      </c>
+      <c r="G4">
+        <v>-0.07948675312732459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01484157191594607</v>
+        <v>-0.03844301972276445</v>
       </c>
       <c r="C6">
-        <v>0.004705186280907662</v>
+        <v>-0.05272363217556903</v>
       </c>
       <c r="D6">
-        <v>0.08403434088840028</v>
+        <v>-0.01650621392609913</v>
       </c>
       <c r="E6">
-        <v>0.008652369349807978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02584138943919772</v>
+      </c>
+      <c r="F6">
+        <v>-0.01140354655379988</v>
+      </c>
+      <c r="G6">
+        <v>-0.06058781780113628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01113057094334521</v>
+        <v>-0.02064889575905306</v>
       </c>
       <c r="C7">
-        <v>0.00657745367298979</v>
+        <v>-0.04104792898585716</v>
       </c>
       <c r="D7">
-        <v>0.04091443602998528</v>
+        <v>-0.01304331445970544</v>
       </c>
       <c r="E7">
-        <v>0.05986717937355315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006291044921381508</v>
+      </c>
+      <c r="F7">
+        <v>0.005982548003203444</v>
+      </c>
+      <c r="G7">
+        <v>-0.1160034199266239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-3.397157317698083e-06</v>
+        <v>-0.001415682070474425</v>
       </c>
       <c r="C8">
-        <v>-0.0031328568470135</v>
+        <v>-0.02372825343359025</v>
       </c>
       <c r="D8">
-        <v>0.00427579105752905</v>
+        <v>-0.004085548471266502</v>
       </c>
       <c r="E8">
-        <v>0.008094156021422751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02191225515662299</v>
+      </c>
+      <c r="F8">
+        <v>-0.007937641947271564</v>
+      </c>
+      <c r="G8">
+        <v>-0.05816831797119699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01623478672459902</v>
+        <v>-0.03429533626127428</v>
       </c>
       <c r="C9">
-        <v>0.01368185080597866</v>
+        <v>-0.04652089481010666</v>
       </c>
       <c r="D9">
-        <v>0.05539754049284806</v>
+        <v>-0.01651445044082011</v>
       </c>
       <c r="E9">
-        <v>0.003735062816425426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01690113527503804</v>
+      </c>
+      <c r="F9">
+        <v>-0.01068221761852221</v>
+      </c>
+      <c r="G9">
+        <v>-0.08309152877330921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02316267507192694</v>
+        <v>-0.09480113134462892</v>
       </c>
       <c r="C10">
-        <v>0.1711241062145224</v>
+        <v>0.1832056262393264</v>
       </c>
       <c r="D10">
-        <v>-0.09282801469209565</v>
+        <v>0.01587801388868392</v>
       </c>
       <c r="E10">
-        <v>-0.01148656967191327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01583942797177479</v>
+      </c>
+      <c r="F10">
+        <v>0.02155912995102027</v>
+      </c>
+      <c r="G10">
+        <v>-0.05188337780388847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004895084228714514</v>
+        <v>-0.03482055802080482</v>
       </c>
       <c r="C11">
-        <v>0.002506476774546601</v>
+        <v>-0.05432540118200545</v>
       </c>
       <c r="D11">
-        <v>0.04369217650884702</v>
+        <v>-0.002524981372694985</v>
       </c>
       <c r="E11">
-        <v>-0.00613105345139477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009334555259122211</v>
+      </c>
+      <c r="F11">
+        <v>-0.02108230040853284</v>
+      </c>
+      <c r="G11">
+        <v>-0.06451181127574367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006276500305826286</v>
+        <v>-0.03655165317895925</v>
       </c>
       <c r="C12">
-        <v>0.009093349860783393</v>
+        <v>-0.04867173909360382</v>
       </c>
       <c r="D12">
-        <v>0.04859978603304632</v>
+        <v>-0.006250061061690709</v>
       </c>
       <c r="E12">
-        <v>0.005821176013049922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0001232363043287675</v>
+      </c>
+      <c r="F12">
+        <v>-0.001105374188254427</v>
+      </c>
+      <c r="G12">
+        <v>-0.06037421008055916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02388649349997742</v>
+        <v>-0.01544283220316806</v>
       </c>
       <c r="C13">
-        <v>0.0170432272866958</v>
+        <v>-0.03675999018376182</v>
       </c>
       <c r="D13">
-        <v>0.004465988482793142</v>
+        <v>-0.02610321339545235</v>
       </c>
       <c r="E13">
-        <v>-0.009407204547779246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02893835331494403</v>
+      </c>
+      <c r="F13">
+        <v>-0.006275989640688341</v>
+      </c>
+      <c r="G13">
+        <v>-0.09580165200938413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008556147598848939</v>
+        <v>-0.008655770064925145</v>
       </c>
       <c r="C14">
-        <v>0.01395050862064787</v>
+        <v>-0.02629070884624561</v>
       </c>
       <c r="D14">
-        <v>0.009253359332616862</v>
+        <v>-0.009296673430647912</v>
       </c>
       <c r="E14">
-        <v>0.007722658770729354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.001854039974042125</v>
+      </c>
+      <c r="F14">
+        <v>0.0056120928451272</v>
+      </c>
+      <c r="G14">
+        <v>-0.08153892013809884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001441778388785208</v>
+        <v>-0.03364539409772461</v>
       </c>
       <c r="C16">
-        <v>0.008640852617011141</v>
+        <v>-0.04846694870671998</v>
       </c>
       <c r="D16">
-        <v>0.04982938609462444</v>
+        <v>-0.002023794844719082</v>
       </c>
       <c r="E16">
-        <v>0.004998812244514183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007674564335040211</v>
+      </c>
+      <c r="F16">
+        <v>-0.002210577167751345</v>
+      </c>
+      <c r="G16">
+        <v>-0.06701300524766764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01462005231952512</v>
+        <v>-0.02140754226983204</v>
       </c>
       <c r="C19">
-        <v>0.01823933024776002</v>
+        <v>-0.04882251410192568</v>
       </c>
       <c r="D19">
-        <v>0.0220899207935418</v>
+        <v>-0.01831165355017331</v>
       </c>
       <c r="E19">
-        <v>0.004460473068255236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06587140687986406</v>
+      </c>
+      <c r="F19">
+        <v>-0.02038518457891994</v>
+      </c>
+      <c r="G19">
+        <v>-0.1107717359007481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01058793775747094</v>
+        <v>-0.01507196351524613</v>
       </c>
       <c r="C20">
-        <v>0.004942452127585496</v>
+        <v>-0.03718501811527889</v>
       </c>
       <c r="D20">
-        <v>0.01574484180913869</v>
+        <v>-0.01391662921222092</v>
       </c>
       <c r="E20">
-        <v>-0.01117281901917724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02699980960100129</v>
+      </c>
+      <c r="F20">
+        <v>0.01090183032946421</v>
+      </c>
+      <c r="G20">
+        <v>-0.08709641739750361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0149273415037938</v>
+        <v>-0.01353411823633356</v>
       </c>
       <c r="C21">
-        <v>0.01676253997659025</v>
+        <v>-0.03863882582332388</v>
       </c>
       <c r="D21">
-        <v>0.0254397505422825</v>
+        <v>-0.0180829691805722</v>
       </c>
       <c r="E21">
-        <v>0.009826079189652696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03970526519326476</v>
+      </c>
+      <c r="F21">
+        <v>0.0008754653681379026</v>
+      </c>
+      <c r="G21">
+        <v>-0.1153806938479042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4.541807602570802e-05</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-6.879690236074863e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-5.606437930742955e-06</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-5.086962845110838e-05</v>
+      </c>
+      <c r="F22">
+        <v>-1.579504194091355e-05</v>
+      </c>
+      <c r="G22">
+        <v>0.0001441204698578805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.541807602570802e-05</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-6.879690236074863e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-5.606437930742955e-06</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-5.086962845110838e-05</v>
+      </c>
+      <c r="F23">
+        <v>-1.579504194091355e-05</v>
+      </c>
+      <c r="G23">
+        <v>0.0001441204698578805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0043918471596262</v>
+        <v>-0.02829001689461901</v>
       </c>
       <c r="C24">
-        <v>-0.002108104231387267</v>
+        <v>-0.05123455591899963</v>
       </c>
       <c r="D24">
-        <v>0.04450983785902658</v>
+        <v>-0.007341884228832052</v>
       </c>
       <c r="E24">
-        <v>0.0007620987391342524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004921110582309108</v>
+      </c>
+      <c r="F24">
+        <v>-0.01388396870593756</v>
+      </c>
+      <c r="G24">
+        <v>-0.06847722821334905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0123894470464559</v>
+        <v>-0.0429415543788684</v>
       </c>
       <c r="C25">
-        <v>0.01506460170401864</v>
+        <v>-0.0581449116971576</v>
       </c>
       <c r="D25">
-        <v>0.04710249377507419</v>
+        <v>-0.01138922119286576</v>
       </c>
       <c r="E25">
-        <v>0.001245348994812469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001350632907530841</v>
+      </c>
+      <c r="F25">
+        <v>-0.008205118558281986</v>
+      </c>
+      <c r="G25">
+        <v>-0.07588091912701005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02360884970662558</v>
+        <v>-0.01551080765826171</v>
       </c>
       <c r="C26">
-        <v>0.01064874953893791</v>
+        <v>-0.008511589269980219</v>
       </c>
       <c r="D26">
-        <v>-0.003192133285967994</v>
+        <v>-0.02342997897047618</v>
       </c>
       <c r="E26">
-        <v>0.009091965240827511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002781700128276091</v>
+      </c>
+      <c r="F26">
+        <v>0.007458431903175927</v>
+      </c>
+      <c r="G26">
+        <v>-0.06531403956298654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04732285734315348</v>
+        <v>-0.1218552810533198</v>
       </c>
       <c r="C28">
-        <v>0.247718575749568</v>
+        <v>0.2369869437905029</v>
       </c>
       <c r="D28">
-        <v>-0.138008741329129</v>
+        <v>0.006818347385562068</v>
       </c>
       <c r="E28">
-        <v>0.01169057405667641</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.003598815473213978</v>
+      </c>
+      <c r="F28">
+        <v>0.01630910603535109</v>
+      </c>
+      <c r="G28">
+        <v>-0.06733859861378556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009086627438161394</v>
+        <v>-0.01051449315534038</v>
       </c>
       <c r="C29">
-        <v>0.01912409871774284</v>
+        <v>-0.0194442495253902</v>
       </c>
       <c r="D29">
-        <v>0.007203907816109393</v>
+        <v>-0.008070878445327468</v>
       </c>
       <c r="E29">
-        <v>0.003300285270163103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.003549384868968461</v>
+      </c>
+      <c r="F29">
+        <v>0.01478406625211887</v>
+      </c>
+      <c r="G29">
+        <v>-0.07323439609820244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02381647837939627</v>
+        <v>-0.04336554881006932</v>
       </c>
       <c r="C30">
-        <v>-0.001044415898896545</v>
+        <v>-0.06537864718726383</v>
       </c>
       <c r="D30">
-        <v>0.05840060977419786</v>
+        <v>-0.02892883307987452</v>
       </c>
       <c r="E30">
-        <v>-0.0475035703468502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05222649577588842</v>
+      </c>
+      <c r="F30">
+        <v>-0.04924586797114393</v>
+      </c>
+      <c r="G30">
+        <v>-0.08557152794241488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01011890954890034</v>
+        <v>-0.05273614827120722</v>
       </c>
       <c r="C31">
-        <v>0.03908234060857321</v>
+        <v>-0.03569821607881184</v>
       </c>
       <c r="D31">
-        <v>0.04725697462363222</v>
+        <v>-0.003344702380742087</v>
       </c>
       <c r="E31">
-        <v>0.01036779636812003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005416157450666136</v>
+      </c>
+      <c r="F31">
+        <v>0.04188555443463284</v>
+      </c>
+      <c r="G31">
+        <v>-0.06977826065067057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005146834797591672</v>
+        <v>-0.00126448620865648</v>
       </c>
       <c r="C32">
-        <v>0.0207631489729053</v>
+        <v>-0.02255834572865679</v>
       </c>
       <c r="D32">
-        <v>-0.006105080114553338</v>
+        <v>0.003866666198795663</v>
       </c>
       <c r="E32">
-        <v>0.05025697144864309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01640006947273245</v>
+      </c>
+      <c r="F32">
+        <v>-0.03995466463256857</v>
+      </c>
+      <c r="G32">
+        <v>-0.09984517855192261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0140708494293627</v>
+        <v>-0.02789061950261622</v>
       </c>
       <c r="C33">
-        <v>0.02231869093322876</v>
+        <v>-0.04817550361579676</v>
       </c>
       <c r="D33">
-        <v>0.03156753986448842</v>
+        <v>-0.01536358960788673</v>
       </c>
       <c r="E33">
-        <v>-0.03000788811114223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03405098087365157</v>
+      </c>
+      <c r="F33">
+        <v>-0.01798067599665408</v>
+      </c>
+      <c r="G33">
+        <v>-0.1073244786694176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003983037082226159</v>
+        <v>-0.04017100531202158</v>
       </c>
       <c r="C34">
-        <v>0.01519871834561825</v>
+        <v>-0.0629959742608632</v>
       </c>
       <c r="D34">
-        <v>0.05214564785766878</v>
+        <v>0.004336747106746058</v>
       </c>
       <c r="E34">
-        <v>0.009512136042523106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0006627310178815711</v>
+      </c>
+      <c r="F34">
+        <v>-0.02080813062004875</v>
+      </c>
+      <c r="G34">
+        <v>-0.07604972423691675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01332595156707666</v>
+        <v>-0.01518314783179084</v>
       </c>
       <c r="C36">
-        <v>0.01976350185760664</v>
+        <v>-0.0082917788773068</v>
       </c>
       <c r="D36">
-        <v>0.004079035367099639</v>
+        <v>-0.0118322462008157</v>
       </c>
       <c r="E36">
-        <v>0.003432735198339023</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001764359495991824</v>
+      </c>
+      <c r="F36">
+        <v>0.008518569749003823</v>
+      </c>
+      <c r="G36">
+        <v>-0.06322938868304974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003233239813134061</v>
+        <v>-0.03283759211876547</v>
       </c>
       <c r="C38">
-        <v>0.03064053358520964</v>
+        <v>-0.03108551861120412</v>
       </c>
       <c r="D38">
-        <v>0.04292124210210289</v>
+        <v>0.007686932802601558</v>
       </c>
       <c r="E38">
-        <v>0.005375053270013553</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00165608580887033</v>
+      </c>
+      <c r="F38">
+        <v>0.01766914146642943</v>
+      </c>
+      <c r="G38">
+        <v>-0.06608957020639951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004099481269398568</v>
+        <v>-0.03543435781399509</v>
       </c>
       <c r="C39">
-        <v>-0.02416166882103836</v>
+        <v>-0.08043222464039551</v>
       </c>
       <c r="D39">
-        <v>0.08543602278229144</v>
+        <v>-0.01195379817406286</v>
       </c>
       <c r="E39">
-        <v>-0.01067035645627364</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.021018186309189</v>
+      </c>
+      <c r="F39">
+        <v>-0.02663987590278578</v>
+      </c>
+      <c r="G39">
+        <v>-0.06607686332200299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0123008522886001</v>
+        <v>-0.01578483116591393</v>
       </c>
       <c r="C40">
-        <v>0.0149495653660498</v>
+        <v>-0.04185217228622343</v>
       </c>
       <c r="D40">
-        <v>0.02729574499415433</v>
+        <v>-0.01504758330178309</v>
       </c>
       <c r="E40">
-        <v>0.002246571562907256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02163186408162182</v>
+      </c>
+      <c r="F40">
+        <v>0.01434381318994228</v>
+      </c>
+      <c r="G40">
+        <v>-0.1065942144971169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006621648957668866</v>
+        <v>-0.01891891573308204</v>
       </c>
       <c r="C41">
-        <v>0.02176621565960398</v>
+        <v>0.0005948051352295829</v>
       </c>
       <c r="D41">
-        <v>-0.008520645399947239</v>
+        <v>-0.003738471598789887</v>
       </c>
       <c r="E41">
-        <v>0.002998185663132581</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0001207210362085666</v>
+      </c>
+      <c r="F41">
+        <v>0.01108120764428922</v>
+      </c>
+      <c r="G41">
+        <v>-0.04876538400476567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09316018994216103</v>
+        <v>-0.01034178665854632</v>
       </c>
       <c r="C42">
-        <v>-0.02425690412628633</v>
+        <v>-0.03784715622020667</v>
       </c>
       <c r="D42">
-        <v>0.267677357898528</v>
+        <v>-0.0934734360375757</v>
       </c>
       <c r="E42">
-        <v>-0.4164368935752599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02858955684222593</v>
+      </c>
+      <c r="F42">
+        <v>0.03778200711400107</v>
+      </c>
+      <c r="G42">
+        <v>0.1559472312830492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007960739075432613</v>
+        <v>-0.03378550706899407</v>
       </c>
       <c r="C43">
-        <v>0.02585913616692743</v>
+        <v>-0.01329544654332712</v>
       </c>
       <c r="D43">
-        <v>-0.005791722275463327</v>
+        <v>-0.005388321603875039</v>
       </c>
       <c r="E43">
-        <v>-0.002185474383686113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01325322665664808</v>
+      </c>
+      <c r="F43">
+        <v>0.004021437943345809</v>
+      </c>
+      <c r="G43">
+        <v>-0.07318359197210308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00239005531567951</v>
+        <v>-0.01296603329393188</v>
       </c>
       <c r="C44">
-        <v>0.0002556006030105064</v>
+        <v>-0.055007039765572</v>
       </c>
       <c r="D44">
-        <v>0.03501531664963898</v>
+        <v>-0.006602470054372712</v>
       </c>
       <c r="E44">
-        <v>0.006232562946217498</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01783042731038903</v>
+      </c>
+      <c r="F44">
+        <v>0.009703960366253693</v>
+      </c>
+      <c r="G44">
+        <v>-0.08934251555420314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01130023680576525</v>
+        <v>-0.007613202675596867</v>
       </c>
       <c r="C46">
-        <v>0.01364632854357369</v>
+        <v>-0.01535198870288328</v>
       </c>
       <c r="D46">
-        <v>0.01076890769217481</v>
+        <v>-0.0119271382470588</v>
       </c>
       <c r="E46">
-        <v>-0.001301595078652852</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001403390604972</v>
+      </c>
+      <c r="F46">
+        <v>0.01572451155420858</v>
+      </c>
+      <c r="G46">
+        <v>-0.07280459609929062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004742422493635359</v>
+        <v>-0.07820015792770782</v>
       </c>
       <c r="C47">
-        <v>0.04878526293787713</v>
+        <v>-0.06471338554534686</v>
       </c>
       <c r="D47">
-        <v>0.07151088518664893</v>
+        <v>0.005304849512661172</v>
       </c>
       <c r="E47">
-        <v>0.005076773130525182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009630155844751008</v>
+      </c>
+      <c r="F47">
+        <v>0.05576350619265132</v>
+      </c>
+      <c r="G47">
+        <v>-0.06426182188881073</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004267991174248744</v>
+        <v>-0.02085165502141521</v>
       </c>
       <c r="C48">
-        <v>0.02416527679138893</v>
+        <v>-0.01085774382206735</v>
       </c>
       <c r="D48">
-        <v>0.01687545391091512</v>
+        <v>-0.001105122794451147</v>
       </c>
       <c r="E48">
-        <v>0.002979665507783128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002218051136180195</v>
+      </c>
+      <c r="F48">
+        <v>0.02199173030868815</v>
+      </c>
+      <c r="G48">
+        <v>-0.06842090683683509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006862406048597777</v>
+        <v>-0.07630859091278655</v>
       </c>
       <c r="C50">
-        <v>0.05172797774975661</v>
+        <v>-0.06783147316283857</v>
       </c>
       <c r="D50">
-        <v>0.06977425521726231</v>
+        <v>0.002956023254134028</v>
       </c>
       <c r="E50">
-        <v>0.03254898085051406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.009963060241744717</v>
+      </c>
+      <c r="F50">
+        <v>0.05984553791886007</v>
+      </c>
+      <c r="G50">
+        <v>-0.08429375711103251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007464657519926295</v>
+        <v>-0.01415547809616029</v>
       </c>
       <c r="C51">
-        <v>0.01418081251345439</v>
+        <v>-0.03375756306487868</v>
       </c>
       <c r="D51">
-        <v>0.004565139395736201</v>
+        <v>-0.009990501206089497</v>
       </c>
       <c r="E51">
-        <v>0.005074365579764351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01672538811640373</v>
+      </c>
+      <c r="F51">
+        <v>-0.0234211214229784</v>
+      </c>
+      <c r="G51">
+        <v>-0.1044697399598092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007890511520198941</v>
+        <v>-0.08301784210564236</v>
       </c>
       <c r="C53">
-        <v>0.05981240918661316</v>
+        <v>-0.0832225626704543</v>
       </c>
       <c r="D53">
-        <v>0.1282640277610435</v>
+        <v>0.0042116501500638</v>
       </c>
       <c r="E53">
-        <v>0.01280038410184016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02964437192819244</v>
+      </c>
+      <c r="F53">
+        <v>0.06504548745462788</v>
+      </c>
+      <c r="G53">
+        <v>-0.06287160923898512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001891216127166985</v>
+        <v>-0.02961856539202585</v>
       </c>
       <c r="C54">
-        <v>0.0342720144231036</v>
+        <v>-0.01415547419125238</v>
       </c>
       <c r="D54">
-        <v>-0.005578359143037858</v>
+        <v>0.001848698044324662</v>
       </c>
       <c r="E54">
-        <v>0.0006521912564730589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.008797859848887056</v>
+      </c>
+      <c r="F54">
+        <v>0.0016925632798797</v>
+      </c>
+      <c r="G54">
+        <v>-0.07536669715585409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003928835147057504</v>
+        <v>-0.07266430835398251</v>
       </c>
       <c r="C55">
-        <v>0.03908404691282662</v>
+        <v>-0.0685666722169392</v>
       </c>
       <c r="D55">
-        <v>0.1062082728520135</v>
+        <v>0.005400371589573619</v>
       </c>
       <c r="E55">
-        <v>-0.0009279847706296446</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02563398301871919</v>
+      </c>
+      <c r="F55">
+        <v>0.06151262357616373</v>
+      </c>
+      <c r="G55">
+        <v>-0.03857022983545477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007062483244797945</v>
+        <v>-0.1393142586331507</v>
       </c>
       <c r="C56">
-        <v>0.08302326458768855</v>
+        <v>-0.1076347831583288</v>
       </c>
       <c r="D56">
-        <v>0.1657030620172199</v>
+        <v>0.01257921196529163</v>
       </c>
       <c r="E56">
-        <v>0.001925789962638022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03298234413848516</v>
+      </c>
+      <c r="F56">
+        <v>0.07917360252175147</v>
+      </c>
+      <c r="G56">
+        <v>-0.01552716279225807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02327408440618382</v>
+        <v>-0.007046159687539566</v>
       </c>
       <c r="C57">
-        <v>0.007177031109053518</v>
+        <v>-0.009056936704993059</v>
       </c>
       <c r="D57">
-        <v>0.04603628826222184</v>
+        <v>-0.02355846596870318</v>
       </c>
       <c r="E57">
-        <v>-0.003314294083965472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02417447047668486</v>
+      </c>
+      <c r="F57">
+        <v>-0.008986744923197997</v>
+      </c>
+      <c r="G57">
+        <v>-0.0283810176011677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01654177406165771</v>
+        <v>-0.06538357885443906</v>
       </c>
       <c r="C58">
-        <v>0.0742707850695478</v>
+        <v>-0.04335373025788022</v>
       </c>
       <c r="D58">
-        <v>0.1376528913870121</v>
+        <v>-0.02715098318576728</v>
       </c>
       <c r="E58">
-        <v>-0.419607971230812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9346690808019114</v>
+      </c>
+      <c r="F58">
+        <v>0.2410482244653427</v>
+      </c>
+      <c r="G58">
+        <v>0.1120181862698838</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04460658242869909</v>
+        <v>-0.1571210904973674</v>
       </c>
       <c r="C59">
-        <v>0.2605714326108443</v>
+        <v>0.2045567944515884</v>
       </c>
       <c r="D59">
-        <v>-0.1386652984766746</v>
+        <v>0.01224073952321854</v>
       </c>
       <c r="E59">
-        <v>0.00511143272400626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01448662322329814</v>
+      </c>
+      <c r="F59">
+        <v>0.0004876695953430406</v>
+      </c>
+      <c r="G59">
+        <v>-0.04190885909840372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04417524244036758</v>
+        <v>-0.287736464485974</v>
       </c>
       <c r="C60">
-        <v>0.1626830922409274</v>
+        <v>-0.09997675577248669</v>
       </c>
       <c r="D60">
-        <v>0.08683250429774196</v>
+        <v>-0.0128964119419223</v>
       </c>
       <c r="E60">
-        <v>0.004480189166203324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002648886423198019</v>
+      </c>
+      <c r="F60">
+        <v>-0.3521526776674622</v>
+      </c>
+      <c r="G60">
+        <v>0.1229583538945656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003063395838599745</v>
+        <v>-0.03755336295313176</v>
       </c>
       <c r="C61">
-        <v>0.003657471282195499</v>
+        <v>-0.06680092986483349</v>
       </c>
       <c r="D61">
-        <v>0.06174197059120577</v>
+        <v>-0.005302797105439606</v>
       </c>
       <c r="E61">
-        <v>0.002283152951410019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01293324470526098</v>
+      </c>
+      <c r="F61">
+        <v>-0.01459580662709221</v>
+      </c>
+      <c r="G61">
+        <v>-0.06698784292665096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007898340541403889</v>
+        <v>-0.01433917591609869</v>
       </c>
       <c r="C63">
-        <v>0.006775351164592709</v>
+        <v>-0.02902000457176089</v>
       </c>
       <c r="D63">
-        <v>0.01207005712261898</v>
+        <v>-0.0081776053105628</v>
       </c>
       <c r="E63">
-        <v>0.009804022718326717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001357488628990838</v>
+      </c>
+      <c r="F63">
+        <v>0.01812051004071345</v>
+      </c>
+      <c r="G63">
+        <v>-0.07304699913041808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009258731115971917</v>
+        <v>-0.04780001292200479</v>
       </c>
       <c r="C64">
-        <v>0.02632557433903098</v>
+        <v>-0.04632959083665225</v>
       </c>
       <c r="D64">
-        <v>0.06374367258721174</v>
+        <v>-0.006405318610898205</v>
       </c>
       <c r="E64">
-        <v>-0.01402685641895608</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.002426011563596917</v>
+      </c>
+      <c r="F64">
+        <v>-0.006056817807854982</v>
+      </c>
+      <c r="G64">
+        <v>-0.06197560525406657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01679834821677423</v>
+        <v>-0.07743900875504091</v>
       </c>
       <c r="C65">
-        <v>0.003596913988120635</v>
+        <v>-0.05883148543979656</v>
       </c>
       <c r="D65">
-        <v>0.09885773065484096</v>
+        <v>-0.01631392057412321</v>
       </c>
       <c r="E65">
-        <v>0.01174159310688477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02780975022194951</v>
+      </c>
+      <c r="F65">
+        <v>-0.03118383668322068</v>
+      </c>
+      <c r="G65">
+        <v>-0.02719010587744014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003916907328899201</v>
+        <v>-0.05126749538427552</v>
       </c>
       <c r="C66">
-        <v>-0.02007034882790747</v>
+        <v>-0.1104665549809687</v>
       </c>
       <c r="D66">
-        <v>0.1088496901259099</v>
+        <v>-0.01198809811566457</v>
       </c>
       <c r="E66">
-        <v>-0.007631824579504449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02912800267437151</v>
+      </c>
+      <c r="F66">
+        <v>-0.03560951574650211</v>
+      </c>
+      <c r="G66">
+        <v>-0.0771257615885642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003723238691710369</v>
+        <v>-0.05549511702775844</v>
       </c>
       <c r="C67">
-        <v>0.05253582426320305</v>
+        <v>-0.03431825127665329</v>
       </c>
       <c r="D67">
-        <v>0.05038174096657627</v>
+        <v>0.005909822900803568</v>
       </c>
       <c r="E67">
-        <v>0.006615630610510672</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004966956562708312</v>
+      </c>
+      <c r="F67">
+        <v>0.01786148250264016</v>
+      </c>
+      <c r="G67">
+        <v>-0.05973559666416197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06124130238480289</v>
+        <v>-0.1459729886168984</v>
       </c>
       <c r="C68">
-        <v>0.2404447152084457</v>
+        <v>0.2687465333019272</v>
       </c>
       <c r="D68">
-        <v>-0.150839697663031</v>
+        <v>-0.005390254576497358</v>
       </c>
       <c r="E68">
-        <v>-0.01559802608412126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01007129160334615</v>
+      </c>
+      <c r="F68">
+        <v>0.03227503307849462</v>
+      </c>
+      <c r="G68">
+        <v>-0.02397977360584164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0006290543730430569</v>
+        <v>-0.08174255215739201</v>
       </c>
       <c r="C69">
-        <v>0.03781475304322802</v>
+        <v>-0.0677426123395749</v>
       </c>
       <c r="D69">
-        <v>0.07124674677998739</v>
+        <v>0.009397548389142717</v>
       </c>
       <c r="E69">
-        <v>0.01040454056357063</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02627709215795202</v>
+      </c>
+      <c r="F69">
+        <v>0.0387808547299495</v>
+      </c>
+      <c r="G69">
+        <v>-0.06661609907350982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04549035685578579</v>
+        <v>-0.1345835214301525</v>
       </c>
       <c r="C71">
-        <v>0.209431358075224</v>
+        <v>0.2296277052231195</v>
       </c>
       <c r="D71">
-        <v>-0.1200270425738556</v>
+        <v>0.003345149848128815</v>
       </c>
       <c r="E71">
-        <v>-0.009141270644160752</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02922634860225236</v>
+      </c>
+      <c r="F71">
+        <v>0.0168535100525611</v>
+      </c>
+      <c r="G71">
+        <v>-0.05622643367235774</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0005163994531300046</v>
+        <v>-0.08689072628971999</v>
       </c>
       <c r="C72">
-        <v>0.03800593881172507</v>
+        <v>-0.07012759187086341</v>
       </c>
       <c r="D72">
-        <v>0.1157439671994863</v>
+        <v>0.007992289722725334</v>
       </c>
       <c r="E72">
-        <v>0.006351073992785992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002243456285358156</v>
+      </c>
+      <c r="F72">
+        <v>-0.0436620667969991</v>
+      </c>
+      <c r="G72">
+        <v>-0.06310388588424387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05587182128340784</v>
+        <v>-0.3794798921288174</v>
       </c>
       <c r="C73">
-        <v>0.1724547594968996</v>
+        <v>-0.1113539475438369</v>
       </c>
       <c r="D73">
-        <v>0.1698626104343782</v>
+        <v>-0.02224455367914189</v>
       </c>
       <c r="E73">
-        <v>-0.03416722462266463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07193879479409648</v>
+      </c>
+      <c r="F73">
+        <v>-0.5711247755808345</v>
+      </c>
+      <c r="G73">
+        <v>0.2080686673404142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003963647820714372</v>
+        <v>-0.1080666729152652</v>
       </c>
       <c r="C74">
-        <v>0.06733583512912261</v>
+        <v>-0.1099053326764021</v>
       </c>
       <c r="D74">
-        <v>0.1643370015423177</v>
+        <v>0.009762843567459769</v>
       </c>
       <c r="E74">
-        <v>-0.008798778439490448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01218129529728194</v>
+      </c>
+      <c r="F74">
+        <v>0.0712198112285653</v>
+      </c>
+      <c r="G74">
+        <v>-0.05954015446254159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01377443119537017</v>
+        <v>-0.2521729684134143</v>
       </c>
       <c r="C75">
-        <v>0.1659919539856028</v>
+        <v>-0.1476886407913655</v>
       </c>
       <c r="D75">
-        <v>0.302162494932393</v>
+        <v>0.03084665167825902</v>
       </c>
       <c r="E75">
-        <v>-0.01371125573549902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05861635733019307</v>
+      </c>
+      <c r="F75">
+        <v>0.1745719644599423</v>
+      </c>
+      <c r="G75">
+        <v>0.05770515171255171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001307652789614083</v>
+        <v>-0.1235006859572327</v>
       </c>
       <c r="C76">
-        <v>0.1037189049339887</v>
+        <v>-0.1122664910145716</v>
       </c>
       <c r="D76">
-        <v>0.2317684774940531</v>
+        <v>0.02022599051753777</v>
       </c>
       <c r="E76">
-        <v>0.03450967652751324</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04212099999973511</v>
+      </c>
+      <c r="F76">
+        <v>0.1148140195557294</v>
+      </c>
+      <c r="G76">
+        <v>-0.03739729624949582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01408445615093658</v>
+        <v>-0.06691651911101047</v>
       </c>
       <c r="C77">
-        <v>0.01879999783574595</v>
+        <v>-0.06014186492179162</v>
       </c>
       <c r="D77">
-        <v>0.03466678208162657</v>
+        <v>-0.01264502033145248</v>
       </c>
       <c r="E77">
-        <v>-0.01830210110841687</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05085035673401085</v>
+      </c>
+      <c r="F77">
+        <v>-0.0133104317828501</v>
+      </c>
+      <c r="G77">
+        <v>-0.06214864888760856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006567498084403149</v>
+        <v>-0.04475875966496011</v>
       </c>
       <c r="C78">
-        <v>0.02022193887678698</v>
+        <v>-0.04883584590680724</v>
       </c>
       <c r="D78">
-        <v>0.03969491080715854</v>
+        <v>-0.005428911704348403</v>
       </c>
       <c r="E78">
-        <v>-0.003795445852923788</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02305325892772903</v>
+      </c>
+      <c r="F78">
+        <v>-0.03658041696822628</v>
+      </c>
+      <c r="G78">
+        <v>-0.07110056703974491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01693423626442653</v>
+        <v>-0.05693197703872271</v>
       </c>
       <c r="C80">
-        <v>0.07840785000372784</v>
+        <v>-0.06987258461917158</v>
       </c>
       <c r="D80">
-        <v>0.2219168371048955</v>
+        <v>-0.01034313591498009</v>
       </c>
       <c r="E80">
-        <v>0.7806601540865933</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02651898740610541</v>
+      </c>
+      <c r="F80">
+        <v>-0.0002927376437460508</v>
+      </c>
+      <c r="G80">
+        <v>-0.6190925481827286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008770627003890287</v>
+        <v>-0.1405220004864402</v>
       </c>
       <c r="C81">
-        <v>0.09868390697571564</v>
+        <v>-0.09506167295812477</v>
       </c>
       <c r="D81">
-        <v>0.1716749781088465</v>
+        <v>0.01532277514732582</v>
       </c>
       <c r="E81">
-        <v>0.01402844647650626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03577505934733568</v>
+      </c>
+      <c r="F81">
+        <v>0.1313809167535426</v>
+      </c>
+      <c r="G81">
+        <v>-0.01997627353076751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1232601176777487</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.06888794752781144</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007320764388827216</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08752509326137897</v>
+      </c>
+      <c r="F82">
+        <v>0.03137481688074201</v>
+      </c>
+      <c r="G82">
+        <v>-0.02990413812257783</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007274946400364165</v>
+        <v>-0.03643943980428297</v>
       </c>
       <c r="C83">
-        <v>0.01939548830893265</v>
+        <v>-0.02672687451293023</v>
       </c>
       <c r="D83">
-        <v>0.02022045458715699</v>
+        <v>-0.005577296304534616</v>
       </c>
       <c r="E83">
-        <v>-0.000601078908749471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02697732839397007</v>
+      </c>
+      <c r="F83">
+        <v>-0.03304183747331323</v>
+      </c>
+      <c r="G83">
+        <v>-0.0475074236632609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02031241196530366</v>
+        <v>-0.2177953103008924</v>
       </c>
       <c r="C85">
-        <v>0.1324469352983962</v>
+        <v>-0.1448082095620783</v>
       </c>
       <c r="D85">
-        <v>0.2739820604034348</v>
+        <v>0.0185731911770829</v>
       </c>
       <c r="E85">
-        <v>-0.006436227943366945</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09826753803786262</v>
+      </c>
+      <c r="F85">
+        <v>0.1357143180340587</v>
+      </c>
+      <c r="G85">
+        <v>0.1131485869843675</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00992346696775139</v>
+        <v>-0.01418083539243849</v>
       </c>
       <c r="C86">
-        <v>0.03049428145797976</v>
+        <v>-0.02560316821045253</v>
       </c>
       <c r="D86">
-        <v>0.008940630897555358</v>
+        <v>-0.0120392856291122</v>
       </c>
       <c r="E86">
-        <v>-0.0351071765788115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04578871762776109</v>
+      </c>
+      <c r="F86">
+        <v>-0.03255504474661944</v>
+      </c>
+      <c r="G86">
+        <v>-0.1574553826147976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008868908991659517</v>
+        <v>-0.02449525877341941</v>
       </c>
       <c r="C87">
-        <v>0.008619941981019544</v>
+        <v>-0.02103969472745014</v>
       </c>
       <c r="D87">
-        <v>0.04098828282656017</v>
+        <v>-0.01199318533214504</v>
       </c>
       <c r="E87">
-        <v>-0.008389609038228463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08429806514901945</v>
+      </c>
+      <c r="F87">
+        <v>-0.02038215211312618</v>
+      </c>
+      <c r="G87">
+        <v>-0.1025631440919003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02786385671941714</v>
+        <v>-0.09191565501127191</v>
       </c>
       <c r="C88">
-        <v>0.02799492573665686</v>
+        <v>-0.06444437543604842</v>
       </c>
       <c r="D88">
-        <v>0.03688741774095054</v>
+        <v>-0.02230433858252142</v>
       </c>
       <c r="E88">
-        <v>0.001242339916590532</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01168662616506842</v>
+      </c>
+      <c r="F88">
+        <v>0.01957767892382714</v>
+      </c>
+      <c r="G88">
+        <v>-0.04971759797685582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08687912626660139</v>
+        <v>-0.2252244773949917</v>
       </c>
       <c r="C89">
-        <v>0.3895233054399185</v>
+        <v>0.3738169836029966</v>
       </c>
       <c r="D89">
-        <v>-0.2126009957129276</v>
+        <v>0.001905138287867606</v>
       </c>
       <c r="E89">
-        <v>0.01719618346922354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02355889321511473</v>
+      </c>
+      <c r="F89">
+        <v>0.03520573309758117</v>
+      </c>
+      <c r="G89">
+        <v>-0.05373475931781146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0660308695450235</v>
+        <v>-0.2019121963962052</v>
       </c>
       <c r="C90">
-        <v>0.3020377757835151</v>
+        <v>0.3239809632937433</v>
       </c>
       <c r="D90">
-        <v>-0.1905430822390378</v>
+        <v>0.006269569451458523</v>
       </c>
       <c r="E90">
-        <v>-0.01644007515532888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01096748857088892</v>
+      </c>
+      <c r="F90">
+        <v>0.04939090888335105</v>
+      </c>
+      <c r="G90">
+        <v>-0.01419876049055325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009362203328448856</v>
+        <v>-0.1911712690750073</v>
       </c>
       <c r="C91">
-        <v>0.1422969959102656</v>
+        <v>-0.1400934209153706</v>
       </c>
       <c r="D91">
-        <v>0.2306595128847952</v>
+        <v>0.02330105589479051</v>
       </c>
       <c r="E91">
-        <v>0.0148118548037034</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06897993497827232</v>
+      </c>
+      <c r="F91">
+        <v>0.1499780421935643</v>
+      </c>
+      <c r="G91">
+        <v>-0.009419717194569219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0331015412214811</v>
+        <v>-0.1989234670478395</v>
       </c>
       <c r="C92">
-        <v>0.3135303292602486</v>
+        <v>0.2643373129302266</v>
       </c>
       <c r="D92">
-        <v>-0.08454840413798927</v>
+        <v>0.04057777322076376</v>
       </c>
       <c r="E92">
-        <v>-0.01913112238673784</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02237369512647645</v>
+      </c>
+      <c r="F92">
+        <v>0.0634198881693907</v>
+      </c>
+      <c r="G92">
+        <v>-0.1232893170694687</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06439961255805515</v>
+        <v>-0.2279342634589437</v>
       </c>
       <c r="C93">
-        <v>0.3271571936917661</v>
+        <v>0.3222567586826895</v>
       </c>
       <c r="D93">
-        <v>-0.1761431761070112</v>
+        <v>0.01301888725586172</v>
       </c>
       <c r="E93">
-        <v>-0.0411874734212056</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002702186009263597</v>
+      </c>
+      <c r="F93">
+        <v>0.03406096024723022</v>
+      </c>
+      <c r="G93">
+        <v>-0.01652492012840349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03299257594259915</v>
+        <v>-0.3163222881037204</v>
       </c>
       <c r="C94">
-        <v>0.1642123958139025</v>
+        <v>-0.174757887697977</v>
       </c>
       <c r="D94">
-        <v>0.2637658920072995</v>
+        <v>0.01781345630277322</v>
       </c>
       <c r="E94">
-        <v>-0.01498221393598873</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1706161612554996</v>
+      </c>
+      <c r="F94">
+        <v>0.4737757887262479</v>
+      </c>
+      <c r="G94">
+        <v>0.3047036741698365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004228058877740399</v>
+        <v>-0.09909880666212686</v>
       </c>
       <c r="C95">
-        <v>0.03657589582601228</v>
+        <v>-0.08356638029466504</v>
       </c>
       <c r="D95">
-        <v>0.08688357715104246</v>
+        <v>0.009379720476867984</v>
       </c>
       <c r="E95">
-        <v>-0.1268680741369342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06358939720800448</v>
+      </c>
+      <c r="F95">
+        <v>-0.208628282256107</v>
+      </c>
+      <c r="G95">
+        <v>0.1033378597103291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01660633941245433</v>
+        <v>-0.1999672428610338</v>
       </c>
       <c r="C98">
-        <v>0.1564171618839232</v>
+        <v>-0.04353542962007702</v>
       </c>
       <c r="D98">
-        <v>0.1287204805969474</v>
+        <v>0.01241701055642929</v>
       </c>
       <c r="E98">
-        <v>-0.04354101220770455</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06936462655554704</v>
+      </c>
+      <c r="F98">
+        <v>-0.2376373368991647</v>
+      </c>
+      <c r="G98">
+        <v>0.004692620573240668</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00886758155795272</v>
+        <v>-0.01034108134447637</v>
       </c>
       <c r="C101">
-        <v>0.01884107594009312</v>
+        <v>-0.01940837537623961</v>
       </c>
       <c r="D101">
-        <v>0.006904827424296975</v>
+        <v>-0.007891231931869283</v>
       </c>
       <c r="E101">
-        <v>0.003703171190536164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.003835073351666058</v>
+      </c>
+      <c r="F101">
+        <v>0.0157966110090291</v>
+      </c>
+      <c r="G101">
+        <v>-0.07271338712031088</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01874720414345297</v>
+        <v>-0.1189315220380376</v>
       </c>
       <c r="C102">
-        <v>0.07128277829653605</v>
+        <v>-0.08406904155347773</v>
       </c>
       <c r="D102">
-        <v>0.1347178923487498</v>
+        <v>-0.0009613146199166525</v>
       </c>
       <c r="E102">
-        <v>0.000914212600799963</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03236930483378715</v>
+      </c>
+      <c r="F102">
+        <v>0.04077815945835497</v>
+      </c>
+      <c r="G102">
+        <v>0.0002195054811818962</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001711128453229394</v>
+        <v>-0.003025346951320471</v>
       </c>
       <c r="C103">
-        <v>0.009021878185269809</v>
+        <v>-0.003577376338528908</v>
       </c>
       <c r="D103">
-        <v>0.02187236829428984</v>
+        <v>-0.0001655761526913204</v>
       </c>
       <c r="E103">
-        <v>0.01368395012044954</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001948219030314688</v>
+      </c>
+      <c r="F103">
+        <v>0.004562223471211112</v>
+      </c>
+      <c r="G103">
+        <v>-0.01244395601831532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9732727147356361</v>
+        <v>-0.02197429380410432</v>
       </c>
       <c r="C104">
-        <v>-0.1846802240242137</v>
+        <v>0.03264895353213124</v>
       </c>
       <c r="D104">
-        <v>-0.01814510820205267</v>
+        <v>-0.9872503309044214</v>
       </c>
       <c r="E104">
-        <v>0.04076481874208372</v>
+        <v>0.05236747183961799</v>
+      </c>
+      <c r="F104">
+        <v>0.03809302462836971</v>
+      </c>
+      <c r="G104">
+        <v>0.0240566354778258</v>
       </c>
     </row>
   </sheetData>
